--- a/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportPackagingMaterials.xlsx
+++ b/becpg-plm/becpg-plm-core/src/main/resources/beCPG/birt/exportsearch/product/ExportPackagingMaterials.xlsx
@@ -45,84 +45,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">excel|IF(ISBLANK(</t>
+      <t xml:space="preserve">excel|IF(C2=</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">C2</t>
+      <t xml:space="preserve">"",B2,C2)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">),IF(ISBLANK(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">),"",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">B2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">C2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">bcpg:code</t>
@@ -131,7 +64,7 @@
     <t xml:space="preserve">bcpg:erpCode</t>
   </si>
   <si>
-    <t xml:space="preserve">excel|IF(ISBLANK(F2),IF(ISBLANK(E2),"",E2), F2)</t>
+    <t xml:space="preserve">excel|IF(F2="",E2,F2)</t>
   </si>
   <si>
     <t xml:space="preserve">bcpg:legalName</t>
@@ -300,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,17 +257,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -476,39 +401,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,11 +441,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -604,15 +529,15 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="3" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
     <col collapsed="false" hidden="true" max="6" min="5" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +753,6 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
